--- a/WorksAssignSystem/WorksAssign/Template/monthly_attendance_template.xlsx
+++ b/WorksAssignSystem/WorksAssign/Template/monthly_attendance_template.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\0.手机拍摄台账\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\Git Projects\Remote\WorksAssignSystem\WorksAssignSystem\WorksAssign\Template\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -17,7 +17,7 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$4:$AX$20</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$4:$AX$13</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
 </workbook>
@@ -164,10 +164,6 @@
   </si>
   <si>
     <t>疗养</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">部门（班组）名称：             </t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
@@ -260,6 +256,10 @@
   </si>
   <si>
     <t>×</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>部门（班组）名称：</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
@@ -532,6 +532,15 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -550,9 +559,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -570,12 +576,6 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -600,13 +600,13 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>213360</xdr:colOff>
-      <xdr:row>65</xdr:row>
+      <xdr:row>58</xdr:row>
       <xdr:rowOff>83820</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>30480</xdr:colOff>
-      <xdr:row>68</xdr:row>
+      <xdr:row>61</xdr:row>
       <xdr:rowOff>129540</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -658,13 +658,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>66</xdr:row>
+      <xdr:row>59</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>83820</xdr:colOff>
-      <xdr:row>69</xdr:row>
+      <xdr:row>62</xdr:row>
       <xdr:rowOff>129540</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -718,13 +718,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>586740</xdr:colOff>
-      <xdr:row>66</xdr:row>
+      <xdr:row>59</xdr:row>
       <xdr:rowOff>60960</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>60960</xdr:colOff>
-      <xdr:row>69</xdr:row>
+      <xdr:row>62</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -778,13 +778,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>69</xdr:row>
+      <xdr:row>62</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>182880</xdr:colOff>
-      <xdr:row>72</xdr:row>
+      <xdr:row>65</xdr:row>
       <xdr:rowOff>129540</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -838,13 +838,13 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>62</xdr:row>
+      <xdr:row>55</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>160020</xdr:colOff>
-      <xdr:row>65</xdr:row>
+      <xdr:row>58</xdr:row>
       <xdr:rowOff>53340</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1187,13 +1187,13 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A3:AX27"/>
+  <dimension ref="A3:AX20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.85" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="5.25" customWidth="1"/>
     <col min="3" max="7" width="3.5" customWidth="1"/>
@@ -1202,62 +1202,62 @@
     <col min="20" max="50" width="4.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:50" ht="28.5" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:50" ht="29.25" x14ac:dyDescent="0.15">
       <c r="A3" s="2"/>
     </row>
-    <row r="4" spans="1:50" ht="28.5" x14ac:dyDescent="0.15">
-      <c r="A4" s="19" t="s">
+    <row r="4" spans="1:50" ht="29.25" x14ac:dyDescent="0.15">
+      <c r="A4" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="19"/>
-      <c r="C4" s="19"/>
-      <c r="D4" s="19"/>
-      <c r="E4" s="19"/>
-      <c r="F4" s="19"/>
-      <c r="G4" s="19"/>
-      <c r="H4" s="19"/>
-      <c r="I4" s="19"/>
-      <c r="J4" s="19"/>
-      <c r="K4" s="19"/>
-      <c r="L4" s="19"/>
-      <c r="M4" s="19"/>
-      <c r="N4" s="19"/>
-      <c r="O4" s="19"/>
-      <c r="P4" s="19"/>
-      <c r="Q4" s="19"/>
-      <c r="R4" s="19"/>
-      <c r="S4" s="19"/>
-      <c r="T4" s="19"/>
-      <c r="U4" s="19"/>
-      <c r="V4" s="19"/>
-      <c r="W4" s="19"/>
-      <c r="X4" s="19"/>
-      <c r="Y4" s="19"/>
-      <c r="Z4" s="19"/>
-      <c r="AA4" s="19"/>
-      <c r="AB4" s="19"/>
-      <c r="AC4" s="19"/>
-      <c r="AD4" s="19"/>
-      <c r="AE4" s="19"/>
-      <c r="AF4" s="19"/>
-      <c r="AG4" s="19"/>
-      <c r="AH4" s="19"/>
-      <c r="AI4" s="19"/>
-      <c r="AJ4" s="19"/>
-      <c r="AK4" s="19"/>
-      <c r="AL4" s="19"/>
-      <c r="AM4" s="19"/>
-      <c r="AN4" s="19"/>
-      <c r="AO4" s="19"/>
-      <c r="AP4" s="19"/>
-      <c r="AQ4" s="19"/>
-      <c r="AR4" s="19"/>
-      <c r="AS4" s="19"/>
-      <c r="AT4" s="19"/>
-      <c r="AU4" s="19"/>
-      <c r="AV4" s="19"/>
-      <c r="AW4" s="19"/>
-      <c r="AX4" s="19"/>
+      <c r="B4" s="22"/>
+      <c r="C4" s="22"/>
+      <c r="D4" s="22"/>
+      <c r="E4" s="22"/>
+      <c r="F4" s="22"/>
+      <c r="G4" s="22"/>
+      <c r="H4" s="22"/>
+      <c r="I4" s="22"/>
+      <c r="J4" s="22"/>
+      <c r="K4" s="22"/>
+      <c r="L4" s="22"/>
+      <c r="M4" s="22"/>
+      <c r="N4" s="22"/>
+      <c r="O4" s="22"/>
+      <c r="P4" s="22"/>
+      <c r="Q4" s="22"/>
+      <c r="R4" s="22"/>
+      <c r="S4" s="22"/>
+      <c r="T4" s="22"/>
+      <c r="U4" s="22"/>
+      <c r="V4" s="22"/>
+      <c r="W4" s="22"/>
+      <c r="X4" s="22"/>
+      <c r="Y4" s="22"/>
+      <c r="Z4" s="22"/>
+      <c r="AA4" s="22"/>
+      <c r="AB4" s="22"/>
+      <c r="AC4" s="22"/>
+      <c r="AD4" s="22"/>
+      <c r="AE4" s="22"/>
+      <c r="AF4" s="22"/>
+      <c r="AG4" s="22"/>
+      <c r="AH4" s="22"/>
+      <c r="AI4" s="22"/>
+      <c r="AJ4" s="22"/>
+      <c r="AK4" s="22"/>
+      <c r="AL4" s="22"/>
+      <c r="AM4" s="22"/>
+      <c r="AN4" s="22"/>
+      <c r="AO4" s="22"/>
+      <c r="AP4" s="22"/>
+      <c r="AQ4" s="22"/>
+      <c r="AR4" s="22"/>
+      <c r="AS4" s="22"/>
+      <c r="AT4" s="22"/>
+      <c r="AU4" s="22"/>
+      <c r="AV4" s="22"/>
+      <c r="AW4" s="22"/>
+      <c r="AX4" s="22"/>
     </row>
     <row r="5" spans="1:50" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="2"/>
@@ -1311,21 +1311,21 @@
       <c r="AW5" s="2"/>
       <c r="AX5" s="2"/>
     </row>
-    <row r="6" spans="1:50" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="AD6" s="26" t="s">
+    <row r="6" spans="1:50" ht="22.85" x14ac:dyDescent="0.15">
+      <c r="AD6" s="28" t="s">
         <v>1</v>
       </c>
       <c r="AE6" s="5" t="s">
         <v>2</v>
       </c>
       <c r="AF6" s="16" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="AG6" s="5" t="s">
         <v>3</v>
       </c>
       <c r="AH6" s="16" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="AI6" s="5" t="s">
         <v>4</v>
@@ -1337,7 +1337,7 @@
         <v>6</v>
       </c>
       <c r="AL6" s="16" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="AM6" s="5" t="s">
         <v>7</v>
@@ -1349,7 +1349,7 @@
         <v>8</v>
       </c>
       <c r="AP6" s="16" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="AQ6" s="5" t="s">
         <v>9</v>
@@ -1376,63 +1376,63 @@
         <v>40</v>
       </c>
     </row>
-    <row r="7" spans="1:50" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A7" s="20" t="s">
+    <row r="7" spans="1:50" ht="22.85" x14ac:dyDescent="0.15">
+      <c r="A7" s="23" t="s">
+        <v>57</v>
+      </c>
+      <c r="B7" s="24"/>
+      <c r="C7" s="24"/>
+      <c r="D7" s="24"/>
+      <c r="E7" s="24"/>
+      <c r="F7" s="24"/>
+      <c r="G7" s="24"/>
+      <c r="H7" s="24"/>
+      <c r="I7" s="24"/>
+      <c r="J7" s="24"/>
+      <c r="K7" s="24"/>
+      <c r="S7" s="31" t="s">
         <v>45</v>
       </c>
-      <c r="B7" s="21"/>
-      <c r="C7" s="21"/>
-      <c r="D7" s="21"/>
-      <c r="E7" s="21"/>
-      <c r="F7" s="21"/>
-      <c r="G7" s="21"/>
-      <c r="H7" s="21"/>
-      <c r="I7" s="21"/>
-      <c r="J7" s="21"/>
-      <c r="K7" s="21"/>
-      <c r="S7" s="29" t="s">
-        <v>46</v>
-      </c>
-      <c r="T7" s="30"/>
-      <c r="U7" s="30"/>
-      <c r="V7" s="30"/>
-      <c r="W7" s="30"/>
-      <c r="AD7" s="27"/>
+      <c r="T7" s="32"/>
+      <c r="U7" s="32"/>
+      <c r="V7" s="32"/>
+      <c r="W7" s="32"/>
+      <c r="AD7" s="29"/>
       <c r="AE7" s="5" t="s">
         <v>15</v>
       </c>
       <c r="AF7" s="16" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="AG7" s="5" t="s">
         <v>16</v>
       </c>
       <c r="AH7" s="16" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AI7" s="5" t="s">
         <v>17</v>
       </c>
       <c r="AJ7" s="16" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="AK7" s="5" t="s">
         <v>18</v>
       </c>
       <c r="AL7" s="16" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="AM7" s="5" t="s">
         <v>19</v>
       </c>
       <c r="AN7" s="16" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="AO7" s="5" t="s">
         <v>20</v>
       </c>
       <c r="AP7" s="16" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="AQ7" s="5" t="s">
         <v>21</v>
@@ -1459,7 +1459,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="8" spans="1:50" ht="31.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:50" ht="31.2" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="13"/>
       <c r="B8" s="13"/>
       <c r="C8" s="13"/>
@@ -1489,86 +1489,86 @@
       <c r="AA8" s="12"/>
       <c r="AB8" s="12"/>
     </row>
-    <row r="9" spans="1:50" ht="37.15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="25" t="s">
+    <row r="9" spans="1:50" ht="37.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="21" t="s">
         <v>27</v>
       </c>
-      <c r="B9" s="25" t="s">
+      <c r="B9" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="C9" s="25" t="s">
+      <c r="C9" s="21" t="s">
         <v>29</v>
       </c>
-      <c r="D9" s="31" t="s">
-        <v>56</v>
-      </c>
-      <c r="E9" s="25" t="s">
+      <c r="D9" s="33" t="s">
+        <v>55</v>
+      </c>
+      <c r="E9" s="21" t="s">
         <v>30</v>
       </c>
-      <c r="F9" s="25" t="s">
+      <c r="F9" s="21" t="s">
         <v>31</v>
       </c>
-      <c r="G9" s="28" t="s">
+      <c r="G9" s="30" t="s">
         <v>43</v>
       </c>
-      <c r="H9" s="22" t="s">
+      <c r="H9" s="25" t="s">
         <v>32</v>
       </c>
-      <c r="I9" s="23"/>
-      <c r="J9" s="23"/>
-      <c r="K9" s="23"/>
-      <c r="L9" s="23"/>
-      <c r="M9" s="23"/>
-      <c r="N9" s="23"/>
-      <c r="O9" s="23"/>
-      <c r="P9" s="23"/>
-      <c r="Q9" s="23"/>
-      <c r="R9" s="24"/>
+      <c r="I9" s="26"/>
+      <c r="J9" s="26"/>
+      <c r="K9" s="26"/>
+      <c r="L9" s="26"/>
+      <c r="M9" s="26"/>
+      <c r="N9" s="26"/>
+      <c r="O9" s="26"/>
+      <c r="P9" s="26"/>
+      <c r="Q9" s="26"/>
+      <c r="R9" s="27"/>
       <c r="S9" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="T9" s="25" t="s">
+      <c r="T9" s="21" t="s">
         <v>34</v>
       </c>
-      <c r="U9" s="25"/>
-      <c r="V9" s="25"/>
-      <c r="W9" s="25"/>
-      <c r="X9" s="25"/>
-      <c r="Y9" s="25"/>
-      <c r="Z9" s="25"/>
-      <c r="AA9" s="25"/>
-      <c r="AB9" s="25"/>
-      <c r="AC9" s="25"/>
-      <c r="AD9" s="25"/>
-      <c r="AE9" s="25"/>
-      <c r="AF9" s="25"/>
-      <c r="AG9" s="25"/>
-      <c r="AH9" s="25"/>
-      <c r="AI9" s="25"/>
-      <c r="AJ9" s="25"/>
-      <c r="AK9" s="25"/>
-      <c r="AL9" s="25"/>
-      <c r="AM9" s="25"/>
-      <c r="AN9" s="25"/>
-      <c r="AO9" s="25"/>
-      <c r="AP9" s="25"/>
-      <c r="AQ9" s="25"/>
-      <c r="AR9" s="25"/>
-      <c r="AS9" s="25"/>
-      <c r="AT9" s="25"/>
-      <c r="AU9" s="25"/>
-      <c r="AV9" s="25"/>
-      <c r="AW9" s="25"/>
-      <c r="AX9" s="25"/>
+      <c r="U9" s="21"/>
+      <c r="V9" s="21"/>
+      <c r="W9" s="21"/>
+      <c r="X9" s="21"/>
+      <c r="Y9" s="21"/>
+      <c r="Z9" s="21"/>
+      <c r="AA9" s="21"/>
+      <c r="AB9" s="21"/>
+      <c r="AC9" s="21"/>
+      <c r="AD9" s="21"/>
+      <c r="AE9" s="21"/>
+      <c r="AF9" s="21"/>
+      <c r="AG9" s="21"/>
+      <c r="AH9" s="21"/>
+      <c r="AI9" s="21"/>
+      <c r="AJ9" s="21"/>
+      <c r="AK9" s="21"/>
+      <c r="AL9" s="21"/>
+      <c r="AM9" s="21"/>
+      <c r="AN9" s="21"/>
+      <c r="AO9" s="21"/>
+      <c r="AP9" s="21"/>
+      <c r="AQ9" s="21"/>
+      <c r="AR9" s="21"/>
+      <c r="AS9" s="21"/>
+      <c r="AT9" s="21"/>
+      <c r="AU9" s="21"/>
+      <c r="AV9" s="21"/>
+      <c r="AW9" s="21"/>
+      <c r="AX9" s="21"/>
     </row>
-    <row r="10" spans="1:50" ht="49.15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="25"/>
-      <c r="B10" s="25"/>
-      <c r="C10" s="25"/>
-      <c r="D10" s="25"/>
-      <c r="E10" s="25"/>
-      <c r="F10" s="25"/>
-      <c r="G10" s="27"/>
+    <row r="10" spans="1:50" ht="49.2" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="21"/>
+      <c r="B10" s="21"/>
+      <c r="C10" s="21"/>
+      <c r="D10" s="21"/>
+      <c r="E10" s="21"/>
+      <c r="F10" s="21"/>
+      <c r="G10" s="29"/>
       <c r="H10" s="4" t="s">
         <v>17</v>
       </c>
@@ -1699,79 +1699,26 @@
         <v>31</v>
       </c>
     </row>
-    <row r="11" spans="1:50" ht="22.9" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="5">
-        <v>1</v>
-      </c>
+    <row r="11" spans="1:50" ht="22.85" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="5"/>
       <c r="B11" s="5"/>
-      <c r="C11" s="5">
-        <f>COUNTIF(T11:AX11,"√")</f>
-        <v>0</v>
-      </c>
-      <c r="D11" s="5">
-        <f>COUNTIF(T11:AX11,"休")</f>
-        <v>0</v>
-      </c>
-      <c r="E11" s="5">
-        <f>COUNTIF(T11:AX11,"×")</f>
-        <v>0</v>
-      </c>
-      <c r="F11" s="5">
-        <f>COUNTIF(T11:AX11,"调")</f>
-        <v>0</v>
-      </c>
-      <c r="G11" s="5">
-        <f>COUNTIF(T11:AX11,"◇")</f>
-        <v>0</v>
-      </c>
-      <c r="H11" s="6">
-        <f>COUNTIF(T11:AX11,"H")</f>
-        <v>0</v>
-      </c>
-      <c r="I11" s="6">
-        <f>COUNTIF(T11:AX11,"婚")</f>
-        <v>0</v>
-      </c>
-      <c r="J11" s="6">
-        <f>COUNTIF(T11:AX11,"产")</f>
-        <v>0</v>
-      </c>
-      <c r="K11" s="6">
-        <f>COUNTIF(T11:AX11,"护")</f>
-        <v>0</v>
-      </c>
-      <c r="L11" s="6">
-        <f>COUNTIF(T11:AX11,"S")</f>
-        <v>0</v>
-      </c>
-      <c r="M11" s="6">
-        <f>COUNTIF(T11:AX11,"+")</f>
-        <v>0</v>
-      </c>
-      <c r="N11" s="6">
-        <f>COUNTIF(T11:AX11,"△")</f>
-        <v>0</v>
-      </c>
-      <c r="O11" s="6">
-        <f>COUNTIF(T11:AX11,"＃")</f>
-        <v>0</v>
-      </c>
-      <c r="P11" s="6">
-        <f>COUNTIF(T11:AX11,"0")</f>
-        <v>0</v>
-      </c>
-      <c r="Q11" s="6">
-        <f>COUNTIF(T11:AX11,"疗")</f>
-        <v>0</v>
-      </c>
-      <c r="R11" s="6">
-        <f>SUM(H11:Q11)</f>
-        <v>0</v>
-      </c>
-      <c r="S11" s="5">
-        <f>COUNTIFS(T11:AX11,"迟")+COUNTIF(T11:AX11,"退")</f>
-        <v>0</v>
-      </c>
+      <c r="C11" s="5"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="5"/>
+      <c r="F11" s="5"/>
+      <c r="G11" s="5"/>
+      <c r="H11" s="6"/>
+      <c r="I11" s="6"/>
+      <c r="J11" s="6"/>
+      <c r="K11" s="6"/>
+      <c r="L11" s="6"/>
+      <c r="M11" s="6"/>
+      <c r="N11" s="6"/>
+      <c r="O11" s="6"/>
+      <c r="P11" s="6"/>
+      <c r="Q11" s="6"/>
+      <c r="R11" s="6"/>
+      <c r="S11" s="5"/>
       <c r="T11" s="5"/>
       <c r="U11" s="5"/>
       <c r="V11" s="5"/>
@@ -1804,79 +1751,26 @@
       <c r="AW11" s="5"/>
       <c r="AX11" s="5"/>
     </row>
-    <row r="12" spans="1:50" ht="22.9" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="5">
-        <v>2</v>
-      </c>
+    <row r="12" spans="1:50" ht="22.85" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A12" s="5"/>
       <c r="B12" s="5"/>
-      <c r="C12" s="5">
-        <f t="shared" ref="C12:C13" si="0">COUNTIF(T12:AX12,"√")</f>
-        <v>0</v>
-      </c>
-      <c r="D12" s="5">
-        <f t="shared" ref="D12:D13" si="1">COUNTIF(T12:AX12,"休")</f>
-        <v>0</v>
-      </c>
-      <c r="E12" s="5">
-        <f t="shared" ref="E12:E13" si="2">COUNTIF(T12:AX12,"×")</f>
-        <v>0</v>
-      </c>
-      <c r="F12" s="5">
-        <f t="shared" ref="F12:F13" si="3">COUNTIF(T12:AX12,"调")</f>
-        <v>0</v>
-      </c>
-      <c r="G12" s="5">
-        <f t="shared" ref="G12:G13" si="4">COUNTIF(T12:AX12,"◇")</f>
-        <v>0</v>
-      </c>
-      <c r="H12" s="6">
-        <f t="shared" ref="H12:H13" si="5">COUNTIF(T12:AX12,"H")</f>
-        <v>0</v>
-      </c>
-      <c r="I12" s="6">
-        <f t="shared" ref="I12:I13" si="6">COUNTIF(T12:AX12,"婚")</f>
-        <v>0</v>
-      </c>
-      <c r="J12" s="6">
-        <f t="shared" ref="J12:J13" si="7">COUNTIF(T12:AX12,"产")</f>
-        <v>0</v>
-      </c>
-      <c r="K12" s="6">
-        <f t="shared" ref="K12:K13" si="8">COUNTIF(T12:AX12,"护")</f>
-        <v>0</v>
-      </c>
-      <c r="L12" s="6">
-        <f t="shared" ref="L12:L13" si="9">COUNTIF(T12:AX12,"S")</f>
-        <v>0</v>
-      </c>
-      <c r="M12" s="6">
-        <f t="shared" ref="M12:M13" si="10">COUNTIF(T12:AX12,"+")</f>
-        <v>0</v>
-      </c>
-      <c r="N12" s="6">
-        <f t="shared" ref="N12:N13" si="11">COUNTIF(T12:AX12,"△")</f>
-        <v>0</v>
-      </c>
-      <c r="O12" s="6">
-        <f t="shared" ref="O12:O13" si="12">COUNTIF(T12:AX12,"＃")</f>
-        <v>0</v>
-      </c>
-      <c r="P12" s="6">
-        <f t="shared" ref="P12:P13" si="13">COUNTIF(T12:AX12,"0")</f>
-        <v>0</v>
-      </c>
-      <c r="Q12" s="6">
-        <f t="shared" ref="Q12:Q13" si="14">COUNTIF(T12:AX12,"疗")</f>
-        <v>0</v>
-      </c>
-      <c r="R12" s="6">
-        <f t="array" ref="R12">SUM(H12:Q12)</f>
-        <v>0</v>
-      </c>
-      <c r="S12" s="5">
-        <f t="shared" ref="S12:S13" si="15">COUNTIFS(T12:AX12,"迟")+COUNTIF(T12:AX12,"退")</f>
-        <v>0</v>
-      </c>
+      <c r="C12" s="5"/>
+      <c r="D12" s="5"/>
+      <c r="E12" s="5"/>
+      <c r="F12" s="5"/>
+      <c r="G12" s="5"/>
+      <c r="H12" s="6"/>
+      <c r="I12" s="6"/>
+      <c r="J12" s="6"/>
+      <c r="K12" s="6"/>
+      <c r="L12" s="6"/>
+      <c r="M12" s="6"/>
+      <c r="N12" s="6"/>
+      <c r="O12" s="6"/>
+      <c r="P12" s="6"/>
+      <c r="Q12" s="6"/>
+      <c r="R12" s="6"/>
+      <c r="S12" s="5"/>
       <c r="T12" s="5"/>
       <c r="U12" s="5"/>
       <c r="V12" s="5"/>
@@ -1909,479 +1803,55 @@
       <c r="AW12" s="5"/>
       <c r="AX12" s="5"/>
     </row>
-    <row r="13" spans="1:50" ht="22.9" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="5">
-        <v>3</v>
-      </c>
-      <c r="B13" s="5"/>
-      <c r="C13" s="5">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="D13" s="5">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="E13" s="5">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="F13" s="5">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="G13" s="5">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="H13" s="6">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="I13" s="6">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="J13" s="6">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="K13" s="6">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="L13" s="6">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="M13" s="6">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="N13" s="6">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="O13" s="6">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="P13" s="6">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="Q13" s="6">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="R13" s="6">
-        <f t="array" ref="R13">SUM(H13:Q13)</f>
-        <v>0</v>
-      </c>
-      <c r="S13" s="5">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="T13" s="5"/>
-      <c r="U13" s="5"/>
-      <c r="V13" s="5"/>
-      <c r="W13" s="5"/>
-      <c r="X13" s="5"/>
-      <c r="Y13" s="5"/>
-      <c r="Z13" s="5"/>
-      <c r="AA13" s="5"/>
-      <c r="AB13" s="5"/>
-      <c r="AC13" s="5"/>
-      <c r="AD13" s="5"/>
-      <c r="AE13" s="5"/>
-      <c r="AF13" s="5"/>
-      <c r="AG13" s="5"/>
-      <c r="AH13" s="5"/>
-      <c r="AI13" s="5"/>
-      <c r="AJ13" s="5"/>
-      <c r="AK13" s="5"/>
-      <c r="AL13" s="5"/>
-      <c r="AM13" s="5"/>
-      <c r="AN13" s="5"/>
-      <c r="AO13" s="5"/>
-      <c r="AP13" s="5"/>
-      <c r="AQ13" s="5"/>
-      <c r="AR13" s="5"/>
-      <c r="AS13" s="5"/>
-      <c r="AT13" s="5"/>
-      <c r="AU13" s="5"/>
-      <c r="AV13" s="5"/>
-      <c r="AW13" s="5"/>
-      <c r="AX13" s="5"/>
+    <row r="13" spans="1:50" ht="43.15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A13" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="B13" s="19"/>
+      <c r="C13" s="19"/>
+      <c r="D13" s="19"/>
+      <c r="E13" s="19"/>
+      <c r="F13" s="19"/>
+      <c r="G13" s="19"/>
+      <c r="H13" s="19"/>
+      <c r="I13" s="19"/>
+      <c r="J13" s="19"/>
+      <c r="K13" s="19"/>
+      <c r="AJ13" s="20" t="s">
+        <v>38</v>
+      </c>
+      <c r="AK13" s="20"/>
+      <c r="AL13" s="20"/>
+      <c r="AM13" s="20"/>
+      <c r="AN13" s="20"/>
+      <c r="AO13" s="20"/>
+      <c r="AP13" s="20"/>
+      <c r="AQ13" s="20"/>
+      <c r="AR13" s="20"/>
     </row>
-    <row r="14" spans="1:50" ht="22.9" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="5"/>
-      <c r="B14" s="5"/>
-      <c r="C14" s="5"/>
-      <c r="D14" s="5"/>
-      <c r="E14" s="5"/>
-      <c r="F14" s="5"/>
-      <c r="G14" s="5"/>
-      <c r="H14" s="6"/>
-      <c r="I14" s="6"/>
-      <c r="J14" s="6"/>
-      <c r="K14" s="6"/>
-      <c r="L14" s="6"/>
-      <c r="M14" s="6"/>
-      <c r="N14" s="6"/>
-      <c r="O14" s="6"/>
-      <c r="P14" s="6"/>
-      <c r="Q14" s="6"/>
-      <c r="R14" s="6"/>
-      <c r="S14" s="5"/>
-      <c r="T14" s="5"/>
-      <c r="U14" s="5"/>
-      <c r="V14" s="5"/>
-      <c r="W14" s="5"/>
-      <c r="X14" s="5"/>
-      <c r="Y14" s="5"/>
-      <c r="Z14" s="5"/>
-      <c r="AA14" s="5"/>
-      <c r="AB14" s="5"/>
-      <c r="AC14" s="5"/>
-      <c r="AD14" s="5"/>
-      <c r="AE14" s="5"/>
-      <c r="AF14" s="5"/>
-      <c r="AG14" s="5"/>
-      <c r="AH14" s="5"/>
-      <c r="AI14" s="5"/>
-      <c r="AJ14" s="5"/>
-      <c r="AK14" s="5"/>
-      <c r="AL14" s="5"/>
-      <c r="AM14" s="5"/>
-      <c r="AN14" s="5"/>
-      <c r="AO14" s="5"/>
-      <c r="AP14" s="5"/>
-      <c r="AQ14" s="5"/>
-      <c r="AR14" s="5"/>
-      <c r="AS14" s="5"/>
-      <c r="AT14" s="5"/>
-      <c r="AU14" s="5"/>
-      <c r="AV14" s="5"/>
-      <c r="AW14" s="5"/>
-      <c r="AX14" s="5"/>
+    <row r="14" spans="1:50" ht="20" x14ac:dyDescent="0.15">
+      <c r="A14" s="7"/>
     </row>
-    <row r="15" spans="1:50" ht="22.9" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="5"/>
-      <c r="B15" s="5"/>
-      <c r="C15" s="5"/>
-      <c r="D15" s="5"/>
-      <c r="E15" s="5"/>
-      <c r="F15" s="5"/>
-      <c r="G15" s="5"/>
-      <c r="H15" s="6"/>
-      <c r="I15" s="6"/>
-      <c r="J15" s="6"/>
-      <c r="K15" s="6"/>
-      <c r="L15" s="6"/>
-      <c r="M15" s="6"/>
-      <c r="N15" s="6"/>
-      <c r="O15" s="6"/>
-      <c r="P15" s="6"/>
-      <c r="Q15" s="6"/>
-      <c r="R15" s="6"/>
-      <c r="S15" s="5"/>
-      <c r="T15" s="5"/>
-      <c r="U15" s="5"/>
-      <c r="V15" s="5"/>
-      <c r="W15" s="5"/>
-      <c r="X15" s="5"/>
-      <c r="Y15" s="5"/>
-      <c r="Z15" s="5"/>
-      <c r="AA15" s="5"/>
-      <c r="AB15" s="5"/>
-      <c r="AC15" s="5"/>
-      <c r="AD15" s="5"/>
-      <c r="AE15" s="5"/>
-      <c r="AF15" s="5"/>
-      <c r="AG15" s="5"/>
-      <c r="AH15" s="5"/>
-      <c r="AI15" s="5"/>
-      <c r="AJ15" s="5"/>
-      <c r="AK15" s="5"/>
-      <c r="AL15" s="5"/>
-      <c r="AM15" s="5"/>
-      <c r="AN15" s="5"/>
-      <c r="AO15" s="5"/>
-      <c r="AP15" s="5"/>
-      <c r="AQ15" s="5"/>
-      <c r="AR15" s="5"/>
-      <c r="AS15" s="5"/>
-      <c r="AT15" s="5"/>
-      <c r="AU15" s="5"/>
-      <c r="AV15" s="5"/>
-      <c r="AW15" s="5"/>
-      <c r="AX15" s="5"/>
+    <row r="15" spans="1:50" ht="20" x14ac:dyDescent="0.15">
+      <c r="A15" s="8"/>
     </row>
-    <row r="16" spans="1:50" ht="22.9" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="5"/>
-      <c r="B16" s="5"/>
-      <c r="C16" s="5"/>
-      <c r="D16" s="5"/>
-      <c r="E16" s="5"/>
-      <c r="F16" s="5"/>
-      <c r="G16" s="5"/>
-      <c r="H16" s="6"/>
-      <c r="I16" s="6"/>
-      <c r="J16" s="6"/>
-      <c r="K16" s="6"/>
-      <c r="L16" s="6"/>
-      <c r="M16" s="6"/>
-      <c r="N16" s="6"/>
-      <c r="O16" s="6"/>
-      <c r="P16" s="6"/>
-      <c r="Q16" s="6"/>
-      <c r="R16" s="6"/>
-      <c r="S16" s="5"/>
-      <c r="T16" s="5"/>
-      <c r="U16" s="5"/>
-      <c r="V16" s="5"/>
-      <c r="W16" s="5"/>
-      <c r="X16" s="5"/>
-      <c r="Y16" s="5"/>
-      <c r="Z16" s="5"/>
-      <c r="AA16" s="5"/>
-      <c r="AB16" s="5"/>
-      <c r="AC16" s="5"/>
-      <c r="AD16" s="5"/>
-      <c r="AE16" s="5"/>
-      <c r="AF16" s="5"/>
-      <c r="AG16" s="5"/>
-      <c r="AH16" s="5"/>
-      <c r="AI16" s="5"/>
-      <c r="AJ16" s="5"/>
-      <c r="AK16" s="5"/>
-      <c r="AL16" s="5"/>
-      <c r="AM16" s="5"/>
-      <c r="AN16" s="5"/>
-      <c r="AO16" s="5"/>
-      <c r="AP16" s="5"/>
-      <c r="AQ16" s="5"/>
-      <c r="AR16" s="5"/>
-      <c r="AS16" s="5"/>
-      <c r="AT16" s="5"/>
-      <c r="AU16" s="5"/>
-      <c r="AV16" s="5"/>
-      <c r="AW16" s="5"/>
-      <c r="AX16" s="5"/>
+    <row r="16" spans="1:50" ht="20" x14ac:dyDescent="0.15">
+      <c r="A16" s="8"/>
     </row>
-    <row r="17" spans="1:50" ht="22.9" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="5"/>
-      <c r="B17" s="5"/>
-      <c r="C17" s="5"/>
-      <c r="D17" s="5"/>
-      <c r="E17" s="5"/>
-      <c r="F17" s="5"/>
-      <c r="G17" s="5"/>
-      <c r="H17" s="6"/>
-      <c r="I17" s="6"/>
-      <c r="J17" s="6"/>
-      <c r="K17" s="6"/>
-      <c r="L17" s="6"/>
-      <c r="M17" s="6"/>
-      <c r="N17" s="6"/>
-      <c r="O17" s="6"/>
-      <c r="P17" s="6"/>
-      <c r="Q17" s="6"/>
-      <c r="R17" s="6"/>
-      <c r="S17" s="5"/>
-      <c r="T17" s="5"/>
-      <c r="U17" s="5"/>
-      <c r="V17" s="5"/>
-      <c r="W17" s="5"/>
-      <c r="X17" s="5"/>
-      <c r="Y17" s="5"/>
-      <c r="Z17" s="5"/>
-      <c r="AA17" s="5"/>
-      <c r="AB17" s="5"/>
-      <c r="AC17" s="5"/>
-      <c r="AD17" s="5"/>
-      <c r="AE17" s="5"/>
-      <c r="AF17" s="5"/>
-      <c r="AG17" s="5"/>
-      <c r="AH17" s="5"/>
-      <c r="AI17" s="5"/>
-      <c r="AJ17" s="5"/>
-      <c r="AK17" s="5"/>
-      <c r="AL17" s="5"/>
-      <c r="AM17" s="5"/>
-      <c r="AN17" s="5"/>
-      <c r="AO17" s="5"/>
-      <c r="AP17" s="5"/>
-      <c r="AQ17" s="5"/>
-      <c r="AR17" s="5"/>
-      <c r="AS17" s="5"/>
-      <c r="AT17" s="5"/>
-      <c r="AU17" s="5"/>
-      <c r="AV17" s="5"/>
-      <c r="AW17" s="5"/>
-      <c r="AX17" s="5"/>
+    <row r="17" spans="1:1" ht="20" x14ac:dyDescent="0.15">
+      <c r="A17" s="8"/>
     </row>
-    <row r="18" spans="1:50" ht="22.9" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="5"/>
-      <c r="B18" s="5"/>
-      <c r="C18" s="5"/>
-      <c r="D18" s="5"/>
-      <c r="E18" s="5"/>
-      <c r="F18" s="5"/>
-      <c r="G18" s="5"/>
-      <c r="H18" s="6"/>
-      <c r="I18" s="6"/>
-      <c r="J18" s="6"/>
-      <c r="K18" s="6"/>
-      <c r="L18" s="6"/>
-      <c r="M18" s="6"/>
-      <c r="N18" s="6"/>
-      <c r="O18" s="6"/>
-      <c r="P18" s="6"/>
-      <c r="Q18" s="6"/>
-      <c r="R18" s="6"/>
-      <c r="S18" s="5"/>
-      <c r="T18" s="5"/>
-      <c r="U18" s="5"/>
-      <c r="V18" s="5"/>
-      <c r="W18" s="5"/>
-      <c r="X18" s="5"/>
-      <c r="Y18" s="5"/>
-      <c r="Z18" s="5"/>
-      <c r="AA18" s="5"/>
-      <c r="AB18" s="5"/>
-      <c r="AC18" s="5"/>
-      <c r="AD18" s="5"/>
-      <c r="AE18" s="5"/>
-      <c r="AF18" s="5"/>
-      <c r="AG18" s="5"/>
-      <c r="AH18" s="5"/>
-      <c r="AI18" s="5"/>
-      <c r="AJ18" s="5"/>
-      <c r="AK18" s="5"/>
-      <c r="AL18" s="5"/>
-      <c r="AM18" s="5"/>
-      <c r="AN18" s="5"/>
-      <c r="AO18" s="5"/>
-      <c r="AP18" s="5"/>
-      <c r="AQ18" s="5"/>
-      <c r="AR18" s="5"/>
-      <c r="AS18" s="5"/>
-      <c r="AT18" s="5"/>
-      <c r="AU18" s="5"/>
-      <c r="AV18" s="5"/>
-      <c r="AW18" s="5"/>
-      <c r="AX18" s="5"/>
+    <row r="18" spans="1:1" ht="20" x14ac:dyDescent="0.15">
+      <c r="A18" s="8"/>
     </row>
-    <row r="19" spans="1:50" ht="22.9" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="5"/>
-      <c r="B19" s="5"/>
-      <c r="C19" s="5"/>
-      <c r="D19" s="5"/>
-      <c r="E19" s="5"/>
-      <c r="F19" s="5"/>
-      <c r="G19" s="5"/>
-      <c r="H19" s="6"/>
-      <c r="I19" s="6"/>
-      <c r="J19" s="6"/>
-      <c r="K19" s="6"/>
-      <c r="L19" s="6"/>
-      <c r="M19" s="6"/>
-      <c r="N19" s="6"/>
-      <c r="O19" s="6"/>
-      <c r="P19" s="6"/>
-      <c r="Q19" s="6"/>
-      <c r="R19" s="6"/>
-      <c r="S19" s="5"/>
-      <c r="T19" s="5"/>
-      <c r="U19" s="5"/>
-      <c r="V19" s="5"/>
-      <c r="W19" s="5"/>
-      <c r="X19" s="5"/>
-      <c r="Y19" s="5"/>
-      <c r="Z19" s="5"/>
-      <c r="AA19" s="5"/>
-      <c r="AB19" s="5"/>
-      <c r="AC19" s="5"/>
-      <c r="AD19" s="5"/>
-      <c r="AE19" s="5"/>
-      <c r="AF19" s="5"/>
-      <c r="AG19" s="5"/>
-      <c r="AH19" s="5"/>
-      <c r="AI19" s="5"/>
-      <c r="AJ19" s="5"/>
-      <c r="AK19" s="5"/>
-      <c r="AL19" s="5"/>
-      <c r="AM19" s="5"/>
-      <c r="AN19" s="5"/>
-      <c r="AO19" s="5"/>
-      <c r="AP19" s="5"/>
-      <c r="AQ19" s="5"/>
-      <c r="AR19" s="5"/>
-      <c r="AS19" s="5"/>
-      <c r="AT19" s="5"/>
-      <c r="AU19" s="5"/>
-      <c r="AV19" s="5"/>
-      <c r="AW19" s="5"/>
-      <c r="AX19" s="5"/>
+    <row r="19" spans="1:1" ht="20" x14ac:dyDescent="0.15">
+      <c r="A19" s="8"/>
     </row>
-    <row r="20" spans="1:50" ht="43.15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="32" t="s">
-        <v>37</v>
-      </c>
-      <c r="B20" s="32"/>
-      <c r="C20" s="32"/>
-      <c r="D20" s="32"/>
-      <c r="E20" s="32"/>
-      <c r="F20" s="32"/>
-      <c r="G20" s="32"/>
-      <c r="H20" s="32"/>
-      <c r="I20" s="32"/>
-      <c r="J20" s="32"/>
-      <c r="K20" s="32"/>
-      <c r="AJ20" s="33" t="s">
-        <v>38</v>
-      </c>
-      <c r="AK20" s="33"/>
-      <c r="AL20" s="33"/>
-      <c r="AM20" s="33"/>
-      <c r="AN20" s="33"/>
-      <c r="AO20" s="33"/>
-      <c r="AP20" s="33"/>
-      <c r="AQ20" s="33"/>
-      <c r="AR20" s="33"/>
-    </row>
-    <row r="21" spans="1:50" ht="20.25" x14ac:dyDescent="0.15">
-      <c r="A21" s="7"/>
-    </row>
-    <row r="22" spans="1:50" ht="20.25" x14ac:dyDescent="0.15">
-      <c r="A22" s="8"/>
-    </row>
-    <row r="23" spans="1:50" ht="20.25" x14ac:dyDescent="0.15">
-      <c r="A23" s="8"/>
-    </row>
-    <row r="24" spans="1:50" ht="20.25" x14ac:dyDescent="0.15">
-      <c r="A24" s="8"/>
-    </row>
-    <row r="25" spans="1:50" ht="20.25" x14ac:dyDescent="0.15">
-      <c r="A25" s="8"/>
-    </row>
-    <row r="26" spans="1:50" ht="20.25" x14ac:dyDescent="0.15">
-      <c r="A26" s="8"/>
-    </row>
-    <row r="27" spans="1:50" x14ac:dyDescent="0.15">
-      <c r="A27" s="9"/>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A20" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="A20:K20"/>
-    <mergeCell ref="AJ20:AR20"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="C9:C10"/>
-    <mergeCell ref="E9:E10"/>
-    <mergeCell ref="F9:F10"/>
     <mergeCell ref="A4:AX4"/>
     <mergeCell ref="A7:K7"/>
     <mergeCell ref="H9:R9"/>
@@ -2390,6 +1860,13 @@
     <mergeCell ref="G9:G10"/>
     <mergeCell ref="S7:W7"/>
     <mergeCell ref="D9:D10"/>
+    <mergeCell ref="A13:K13"/>
+    <mergeCell ref="AJ13:AR13"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="E9:E10"/>
+    <mergeCell ref="F9:F10"/>
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
   <printOptions horizontalCentered="1"/>
@@ -2405,7 +1882,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.85" x14ac:dyDescent="0.15"/>
   <sheetData/>
   <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2419,7 +1896,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.85" x14ac:dyDescent="0.15"/>
   <sheetData/>
   <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
